--- a/mpxo.xlsx
+++ b/mpxo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4961" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5027" uniqueCount="368">
   <si>
     <t>ประทับเวลา</t>
   </si>
@@ -121,23 +121,7 @@
     <t>8. วันที่มารับบริการ</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">ส่วน </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>ความพึงพอใจต่อบริการของโรงพยาบาลในภาพรวม</t>
-    </r>
+    <t>ความพึงพอใจต่อบริการของโรงพยาบาลในภาพรวม</t>
   </si>
   <si>
     <t>1. ขั้นตอนการติดต่อและเข้ารับการรักษาในโรงพยาบาล มีความสะดวกเพียงใด</t>
@@ -1239,6 +1223,21 @@
   </si>
   <si>
     <t>ดีมาๆ</t>
+  </si>
+  <si>
+    <t>หน่วยแพทย์บูรณาการ</t>
+  </si>
+  <si>
+    <t>มีอาการปวดเมื่อย</t>
+  </si>
+  <si>
+    <t>ทำดีแล้วครับ รักษามาตรฐานไว้ต่อไป พัฒนาขึ้นเรื่อยๆ</t>
+  </si>
+  <si>
+    <t>วัคซีน</t>
+  </si>
+  <si>
+    <t>กฟส.แม่สาย</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1389,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA224" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA227" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="27">
     <tableColumn name="ประทับเวลา" id="1"/>
     <tableColumn name="หน่วยงานที่ท่านเข้ารับบริการ/ ต้องการประเมิน (เพื่อสะท้อนกลับหน่วยงานโดยตรง)" id="2"/>
@@ -1403,7 +1402,7 @@
     <tableColumn name="6. อาชีพ " id="9"/>
     <tableColumn name="7. สิทธิในการรักษา " id="10"/>
     <tableColumn name="8. วันที่มารับบริการ" id="11"/>
-    <tableColumn name="ส่วน ความพึงพอใจต่อบริการของโรงพยาบาลในภาพรวม" id="12"/>
+    <tableColumn name="ความพึงพอใจต่อบริการของโรงพยาบาลในภาพรวม" id="12"/>
     <tableColumn name="1. ขั้นตอนการติดต่อและเข้ารับการรักษาในโรงพยาบาล มีความสะดวกเพียงใด" id="13"/>
     <tableColumn name="2. ขั้นตอนการนัดหมายเพื่อเข้ารับบริการ มีความสะดวกเพียงใด" id="14"/>
     <tableColumn name="3. ท่านรู้สึกว่าระยะเวลารอคอยเพื่อพบแพทย์เหมาะสมเพียงใด" id="15"/>
@@ -1681,7 +1680,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -18313,6 +18312,228 @@
         <v>362</v>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" s="8">
+        <v>45957.43552460648</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H225" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I225" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J225" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K225" s="10">
+        <v>244284.0</v>
+      </c>
+      <c r="L225" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M225" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N225" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O225" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P225" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q225" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R225" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S225" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T225" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U225" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V225" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W225" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X225" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y225" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="8">
+        <v>45957.462592881944</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H226" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I226" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J226" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K226" s="10">
+        <v>45957.0</v>
+      </c>
+      <c r="L226" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M226" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N226" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O226" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P226" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q226" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R226" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S226" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T226" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U226" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V226" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W226" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X226" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y226" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA226" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="8">
+        <v>45957.47176168981</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E227" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G227" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H227" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I227" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="J227" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K227" s="10">
+        <v>45957.0</v>
+      </c>
+      <c r="L227" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M227" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N227" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O227" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P227" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q227" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R227" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S227" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T227" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U227" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V227" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W227" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X227" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y227" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">
